--- a/2022/Samsung/APRIL/09.04.2022/SAMSUNG Bank Statement April-2022.xlsx
+++ b/2022/Samsung/APRIL/09.04.2022/SAMSUNG Bank Statement April-2022.xlsx
@@ -2276,7 +2276,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="461">
+  <cellXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3107,12 +3107,6 @@
     <xf numFmtId="1" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3398,6 +3392,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3425,24 +3431,12 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3521,6 +3515,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3530,10 +3548,16 @@
     <xf numFmtId="0" fontId="11" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3545,21 +3569,9 @@
     <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="45" fillId="41" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3575,26 +3587,11 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4053,33 +4050,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="393"/>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
+      <c r="A1" s="391"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="394"/>
-      <c r="B2" s="391" t="s">
+      <c r="A2" s="392"/>
+      <c r="B2" s="389" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="391"/>
-      <c r="D2" s="391"/>
-      <c r="E2" s="391"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="394"/>
-      <c r="B3" s="392" t="s">
+      <c r="A3" s="392"/>
+      <c r="B3" s="390" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="392"/>
-      <c r="D3" s="392"/>
-      <c r="E3" s="392"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="394"/>
+      <c r="A4" s="392"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4097,7 +4094,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="394"/>
+      <c r="A5" s="392"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4115,7 +4112,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="394"/>
+      <c r="A6" s="392"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4127,7 +4124,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="394"/>
+      <c r="A7" s="392"/>
       <c r="B7" s="26" t="s">
         <v>42</v>
       </c>
@@ -4146,7 +4143,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="394"/>
+      <c r="A8" s="392"/>
       <c r="B8" s="26" t="s">
         <v>43</v>
       </c>
@@ -4165,7 +4162,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="394"/>
+      <c r="A9" s="392"/>
       <c r="B9" s="26" t="s">
         <v>45</v>
       </c>
@@ -4184,7 +4181,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="394"/>
+      <c r="A10" s="392"/>
       <c r="B10" s="26" t="s">
         <v>46</v>
       </c>
@@ -4203,7 +4200,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="394"/>
+      <c r="A11" s="392"/>
       <c r="B11" s="26" t="s">
         <v>47</v>
       </c>
@@ -4222,7 +4219,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="394"/>
+      <c r="A12" s="392"/>
       <c r="B12" s="26" t="s">
         <v>48</v>
       </c>
@@ -4241,7 +4238,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="394"/>
+      <c r="A13" s="392"/>
       <c r="B13" s="26" t="s">
         <v>49</v>
       </c>
@@ -4260,7 +4257,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="394"/>
+      <c r="A14" s="392"/>
       <c r="B14" s="26" t="s">
         <v>50</v>
       </c>
@@ -4279,7 +4276,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="394"/>
+      <c r="A15" s="392"/>
       <c r="B15" s="26" t="s">
         <v>51</v>
       </c>
@@ -4298,7 +4295,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="394"/>
+      <c r="A16" s="392"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4311,7 +4308,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="394"/>
+      <c r="A17" s="392"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4324,7 +4321,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="394"/>
+      <c r="A18" s="392"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4337,7 +4334,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="394"/>
+      <c r="A19" s="392"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4350,7 +4347,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="394"/>
+      <c r="A20" s="392"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4363,7 +4360,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="394"/>
+      <c r="A21" s="392"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4376,7 +4373,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="394"/>
+      <c r="A22" s="392"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4389,7 +4386,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="394"/>
+      <c r="A23" s="392"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4402,7 +4399,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="394"/>
+      <c r="A24" s="392"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4415,7 +4412,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="394"/>
+      <c r="A25" s="392"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4428,7 +4425,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="394"/>
+      <c r="A26" s="392"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4441,7 +4438,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="394"/>
+      <c r="A27" s="392"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4454,7 +4451,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="394"/>
+      <c r="A28" s="392"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4467,7 +4464,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="394"/>
+      <c r="A29" s="392"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4480,7 +4477,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="394"/>
+      <c r="A30" s="392"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4493,7 +4490,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="394"/>
+      <c r="A31" s="392"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4506,7 +4503,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="394"/>
+      <c r="A32" s="392"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4519,7 +4516,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="394"/>
+      <c r="A33" s="392"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4532,7 +4529,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="394"/>
+      <c r="A34" s="392"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4545,7 +4542,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="394"/>
+      <c r="A35" s="392"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4558,7 +4555,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="394"/>
+      <c r="A36" s="392"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4571,7 +4568,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="394"/>
+      <c r="A37" s="392"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4584,7 +4581,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="394"/>
+      <c r="A38" s="392"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4597,7 +4594,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="394"/>
+      <c r="A39" s="392"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4610,7 +4607,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="394"/>
+      <c r="A40" s="392"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4623,7 +4620,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="394"/>
+      <c r="A41" s="392"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4636,7 +4633,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="394"/>
+      <c r="A42" s="392"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4649,7 +4646,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="394"/>
+      <c r="A43" s="392"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4662,7 +4659,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="394"/>
+      <c r="A44" s="392"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4675,7 +4672,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="394"/>
+      <c r="A45" s="392"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4688,7 +4685,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="394"/>
+      <c r="A46" s="392"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4701,7 +4698,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="394"/>
+      <c r="A47" s="392"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4714,7 +4711,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="394"/>
+      <c r="A48" s="392"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4727,7 +4724,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="394"/>
+      <c r="A49" s="392"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4740,7 +4737,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="394"/>
+      <c r="A50" s="392"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4753,7 +4750,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="394"/>
+      <c r="A51" s="392"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4766,7 +4763,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="394"/>
+      <c r="A52" s="392"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4779,7 +4776,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="394"/>
+      <c r="A53" s="392"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4792,7 +4789,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="394"/>
+      <c r="A54" s="392"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4805,7 +4802,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="394"/>
+      <c r="A55" s="392"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4817,7 +4814,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="394"/>
+      <c r="A56" s="392"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4829,7 +4826,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="394"/>
+      <c r="A57" s="392"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4841,7 +4838,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="394"/>
+      <c r="A58" s="392"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4853,7 +4850,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="394"/>
+      <c r="A59" s="392"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4865,7 +4862,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="394"/>
+      <c r="A60" s="392"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4877,7 +4874,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="394"/>
+      <c r="A61" s="392"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4889,7 +4886,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="394"/>
+      <c r="A62" s="392"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4901,7 +4898,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="394"/>
+      <c r="A63" s="392"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4913,7 +4910,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="394"/>
+      <c r="A64" s="392"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4925,7 +4922,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="394"/>
+      <c r="A65" s="392"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4937,7 +4934,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="394"/>
+      <c r="A66" s="392"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4949,7 +4946,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="394"/>
+      <c r="A67" s="392"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4961,7 +4958,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="394"/>
+      <c r="A68" s="392"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4973,7 +4970,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="394"/>
+      <c r="A69" s="392"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4985,7 +4982,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="394"/>
+      <c r="A70" s="392"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4997,7 +4994,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="394"/>
+      <c r="A71" s="392"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5009,7 +5006,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="394"/>
+      <c r="A72" s="392"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5021,7 +5018,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="394"/>
+      <c r="A73" s="392"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5033,7 +5030,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="394"/>
+      <c r="A74" s="392"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5045,7 +5042,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="394"/>
+      <c r="A75" s="392"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5057,7 +5054,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="394"/>
+      <c r="A76" s="392"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5069,7 +5066,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="394"/>
+      <c r="A77" s="392"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5081,7 +5078,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="394"/>
+      <c r="A78" s="392"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5093,7 +5090,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="394"/>
+      <c r="A79" s="392"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5105,7 +5102,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="394"/>
+      <c r="A80" s="392"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5117,7 +5114,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="394"/>
+      <c r="A81" s="392"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5129,7 +5126,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="394"/>
+      <c r="A82" s="392"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5141,7 +5138,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="394"/>
+      <c r="A83" s="392"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5198,33 +5195,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="393"/>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
+      <c r="A1" s="391"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="394"/>
-      <c r="B2" s="391" t="s">
+      <c r="A2" s="392"/>
+      <c r="B2" s="389" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="391"/>
-      <c r="D2" s="391"/>
-      <c r="E2" s="391"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="394"/>
-      <c r="B3" s="392" t="s">
+      <c r="A3" s="392"/>
+      <c r="B3" s="390" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="392"/>
-      <c r="D3" s="392"/>
-      <c r="E3" s="392"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="394"/>
+      <c r="A4" s="392"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5242,7 +5239,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="394"/>
+      <c r="A5" s="392"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5260,7 +5257,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="394"/>
+      <c r="A6" s="392"/>
       <c r="B6" s="26"/>
       <c r="C6" s="243"/>
       <c r="D6" s="243"/>
@@ -5272,7 +5269,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="394"/>
+      <c r="A7" s="392"/>
       <c r="B7" s="26" t="s">
         <v>246</v>
       </c>
@@ -5292,7 +5289,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="394"/>
+      <c r="A8" s="392"/>
       <c r="B8" s="26" t="s">
         <v>250</v>
       </c>
@@ -5312,7 +5309,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="394"/>
+      <c r="A9" s="392"/>
       <c r="B9" s="26" t="s">
         <v>256</v>
       </c>
@@ -5332,7 +5329,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="394"/>
+      <c r="A10" s="392"/>
       <c r="B10" s="26" t="s">
         <v>262</v>
       </c>
@@ -5352,7 +5349,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="394"/>
+      <c r="A11" s="392"/>
       <c r="B11" s="26" t="s">
         <v>267</v>
       </c>
@@ -5372,7 +5369,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="394"/>
+      <c r="A12" s="392"/>
       <c r="B12" s="26" t="s">
         <v>269</v>
       </c>
@@ -5392,7 +5389,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="394"/>
+      <c r="A13" s="392"/>
       <c r="B13" s="26"/>
       <c r="C13" s="243"/>
       <c r="D13" s="243"/>
@@ -5406,7 +5403,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="394"/>
+      <c r="A14" s="392"/>
       <c r="B14" s="26"/>
       <c r="C14" s="243"/>
       <c r="D14" s="243"/>
@@ -5420,7 +5417,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="394"/>
+      <c r="A15" s="392"/>
       <c r="B15" s="26"/>
       <c r="C15" s="243"/>
       <c r="D15" s="243"/>
@@ -5434,7 +5431,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="394"/>
+      <c r="A16" s="392"/>
       <c r="B16" s="26"/>
       <c r="C16" s="243"/>
       <c r="D16" s="243"/>
@@ -5448,7 +5445,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="394"/>
+      <c r="A17" s="392"/>
       <c r="B17" s="26"/>
       <c r="C17" s="243"/>
       <c r="D17" s="243"/>
@@ -5462,7 +5459,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="394"/>
+      <c r="A18" s="392"/>
       <c r="B18" s="26"/>
       <c r="C18" s="243"/>
       <c r="D18" s="243"/>
@@ -5476,7 +5473,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="394"/>
+      <c r="A19" s="392"/>
       <c r="B19" s="26"/>
       <c r="C19" s="243"/>
       <c r="D19" s="245"/>
@@ -5490,7 +5487,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="394"/>
+      <c r="A20" s="392"/>
       <c r="B20" s="26"/>
       <c r="C20" s="243"/>
       <c r="D20" s="243"/>
@@ -5504,7 +5501,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="394"/>
+      <c r="A21" s="392"/>
       <c r="B21" s="26"/>
       <c r="C21" s="243"/>
       <c r="D21" s="243"/>
@@ -5518,7 +5515,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="394"/>
+      <c r="A22" s="392"/>
       <c r="B22" s="26"/>
       <c r="C22" s="243"/>
       <c r="D22" s="243"/>
@@ -5532,7 +5529,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="394"/>
+      <c r="A23" s="392"/>
       <c r="B23" s="26"/>
       <c r="C23" s="243"/>
       <c r="D23" s="243"/>
@@ -5546,7 +5543,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="394"/>
+      <c r="A24" s="392"/>
       <c r="B24" s="26"/>
       <c r="C24" s="243"/>
       <c r="D24" s="243"/>
@@ -5560,7 +5557,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="394"/>
+      <c r="A25" s="392"/>
       <c r="B25" s="26"/>
       <c r="C25" s="243"/>
       <c r="D25" s="243"/>
@@ -5574,7 +5571,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="394"/>
+      <c r="A26" s="392"/>
       <c r="B26" s="26"/>
       <c r="C26" s="243"/>
       <c r="D26" s="243"/>
@@ -5588,7 +5585,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="394"/>
+      <c r="A27" s="392"/>
       <c r="B27" s="26"/>
       <c r="C27" s="243"/>
       <c r="D27" s="243"/>
@@ -5597,12 +5594,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="291"/>
+      <c r="G27" s="289"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="394"/>
+      <c r="A28" s="392"/>
       <c r="B28" s="26"/>
       <c r="C28" s="243"/>
       <c r="D28" s="243"/>
@@ -5616,7 +5613,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="394"/>
+      <c r="A29" s="392"/>
       <c r="B29" s="26"/>
       <c r="C29" s="243"/>
       <c r="D29" s="243"/>
@@ -5625,12 +5622,12 @@
         <v>0</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="291"/>
+      <c r="G29" s="289"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="394"/>
+      <c r="A30" s="392"/>
       <c r="B30" s="26"/>
       <c r="C30" s="243"/>
       <c r="D30" s="243"/>
@@ -5644,7 +5641,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="394"/>
+      <c r="A31" s="392"/>
       <c r="B31" s="26"/>
       <c r="C31" s="243"/>
       <c r="D31" s="243"/>
@@ -5658,7 +5655,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="394"/>
+      <c r="A32" s="392"/>
       <c r="B32" s="26"/>
       <c r="C32" s="243"/>
       <c r="D32" s="243"/>
@@ -5672,7 +5669,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="394"/>
+      <c r="A33" s="392"/>
       <c r="B33" s="26"/>
       <c r="C33" s="243"/>
       <c r="D33" s="245"/>
@@ -5686,7 +5683,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="394"/>
+      <c r="A34" s="392"/>
       <c r="B34" s="26"/>
       <c r="C34" s="243"/>
       <c r="D34" s="243"/>
@@ -5700,7 +5697,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="394"/>
+      <c r="A35" s="392"/>
       <c r="B35" s="26"/>
       <c r="C35" s="243"/>
       <c r="D35" s="243"/>
@@ -5714,7 +5711,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="394"/>
+      <c r="A36" s="392"/>
       <c r="B36" s="26"/>
       <c r="C36" s="243"/>
       <c r="D36" s="243"/>
@@ -5728,7 +5725,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="394"/>
+      <c r="A37" s="392"/>
       <c r="B37" s="26"/>
       <c r="C37" s="243"/>
       <c r="D37" s="243"/>
@@ -5742,7 +5739,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="394"/>
+      <c r="A38" s="392"/>
       <c r="B38" s="26"/>
       <c r="C38" s="243"/>
       <c r="D38" s="243"/>
@@ -5756,7 +5753,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="394"/>
+      <c r="A39" s="392"/>
       <c r="B39" s="26"/>
       <c r="C39" s="243"/>
       <c r="D39" s="243"/>
@@ -5770,7 +5767,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="394"/>
+      <c r="A40" s="392"/>
       <c r="B40" s="26"/>
       <c r="C40" s="243"/>
       <c r="D40" s="243"/>
@@ -5784,7 +5781,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="394"/>
+      <c r="A41" s="392"/>
       <c r="B41" s="26"/>
       <c r="C41" s="243"/>
       <c r="D41" s="243"/>
@@ -5798,7 +5795,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="394"/>
+      <c r="A42" s="392"/>
       <c r="B42" s="26"/>
       <c r="C42" s="243"/>
       <c r="D42" s="243"/>
@@ -5812,7 +5809,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="394"/>
+      <c r="A43" s="392"/>
       <c r="B43" s="26"/>
       <c r="C43" s="243"/>
       <c r="D43" s="243"/>
@@ -5826,7 +5823,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="394"/>
+      <c r="A44" s="392"/>
       <c r="B44" s="26"/>
       <c r="C44" s="243"/>
       <c r="D44" s="243"/>
@@ -5840,7 +5837,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="394"/>
+      <c r="A45" s="392"/>
       <c r="B45" s="26"/>
       <c r="C45" s="243"/>
       <c r="D45" s="243"/>
@@ -5854,7 +5851,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="394"/>
+      <c r="A46" s="392"/>
       <c r="B46" s="26"/>
       <c r="C46" s="243"/>
       <c r="D46" s="243"/>
@@ -5868,7 +5865,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="394"/>
+      <c r="A47" s="392"/>
       <c r="B47" s="26"/>
       <c r="C47" s="243"/>
       <c r="D47" s="243"/>
@@ -5882,7 +5879,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="394"/>
+      <c r="A48" s="392"/>
       <c r="B48" s="26"/>
       <c r="C48" s="243"/>
       <c r="D48" s="243"/>
@@ -5896,7 +5893,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="394"/>
+      <c r="A49" s="392"/>
       <c r="B49" s="26"/>
       <c r="C49" s="243"/>
       <c r="D49" s="243"/>
@@ -5910,7 +5907,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="394"/>
+      <c r="A50" s="392"/>
       <c r="B50" s="26"/>
       <c r="C50" s="243"/>
       <c r="D50" s="243"/>
@@ -5924,7 +5921,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="394"/>
+      <c r="A51" s="392"/>
       <c r="B51" s="26"/>
       <c r="C51" s="243"/>
       <c r="D51" s="243"/>
@@ -5938,7 +5935,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="394"/>
+      <c r="A52" s="392"/>
       <c r="B52" s="26"/>
       <c r="C52" s="243"/>
       <c r="D52" s="243"/>
@@ -5952,7 +5949,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="394"/>
+      <c r="A53" s="392"/>
       <c r="B53" s="26"/>
       <c r="C53" s="243"/>
       <c r="D53" s="243"/>
@@ -5966,7 +5963,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="394"/>
+      <c r="A54" s="392"/>
       <c r="B54" s="26"/>
       <c r="C54" s="243"/>
       <c r="D54" s="243"/>
@@ -5980,7 +5977,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="394"/>
+      <c r="A55" s="392"/>
       <c r="B55" s="26"/>
       <c r="C55" s="243"/>
       <c r="D55" s="243"/>
@@ -5994,7 +5991,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="394"/>
+      <c r="A56" s="392"/>
       <c r="B56" s="26"/>
       <c r="C56" s="243"/>
       <c r="D56" s="243"/>
@@ -6008,7 +6005,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="394"/>
+      <c r="A57" s="392"/>
       <c r="B57" s="26"/>
       <c r="C57" s="243"/>
       <c r="D57" s="243"/>
@@ -6019,7 +6016,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="394"/>
+      <c r="A58" s="392"/>
       <c r="B58" s="26"/>
       <c r="C58" s="243"/>
       <c r="D58" s="243"/>
@@ -6030,7 +6027,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="394"/>
+      <c r="A59" s="392"/>
       <c r="B59" s="26"/>
       <c r="C59" s="243"/>
       <c r="D59" s="243"/>
@@ -6041,7 +6038,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="394"/>
+      <c r="A60" s="392"/>
       <c r="B60" s="26"/>
       <c r="C60" s="243"/>
       <c r="D60" s="243"/>
@@ -6052,7 +6049,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="394"/>
+      <c r="A61" s="392"/>
       <c r="B61" s="26"/>
       <c r="C61" s="243"/>
       <c r="D61" s="243"/>
@@ -6063,7 +6060,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="394"/>
+      <c r="A62" s="392"/>
       <c r="B62" s="26"/>
       <c r="C62" s="243"/>
       <c r="D62" s="243"/>
@@ -6074,7 +6071,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="394"/>
+      <c r="A63" s="392"/>
       <c r="B63" s="26"/>
       <c r="C63" s="243"/>
       <c r="D63" s="243"/>
@@ -6085,7 +6082,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="394"/>
+      <c r="A64" s="392"/>
       <c r="B64" s="26"/>
       <c r="C64" s="243"/>
       <c r="D64" s="243"/>
@@ -6096,7 +6093,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="394"/>
+      <c r="A65" s="392"/>
       <c r="B65" s="26"/>
       <c r="C65" s="243"/>
       <c r="D65" s="243"/>
@@ -6107,7 +6104,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="394"/>
+      <c r="A66" s="392"/>
       <c r="B66" s="26"/>
       <c r="C66" s="243"/>
       <c r="D66" s="243"/>
@@ -6118,7 +6115,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="394"/>
+      <c r="A67" s="392"/>
       <c r="B67" s="26"/>
       <c r="C67" s="243"/>
       <c r="D67" s="243"/>
@@ -6129,7 +6126,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="394"/>
+      <c r="A68" s="392"/>
       <c r="B68" s="26"/>
       <c r="C68" s="243"/>
       <c r="D68" s="243"/>
@@ -6140,7 +6137,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="394"/>
+      <c r="A69" s="392"/>
       <c r="B69" s="26"/>
       <c r="C69" s="243"/>
       <c r="D69" s="243"/>
@@ -6151,7 +6148,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="394"/>
+      <c r="A70" s="392"/>
       <c r="B70" s="26"/>
       <c r="C70" s="243"/>
       <c r="D70" s="243"/>
@@ -6162,7 +6159,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="394"/>
+      <c r="A71" s="392"/>
       <c r="B71" s="26"/>
       <c r="C71" s="243"/>
       <c r="D71" s="243"/>
@@ -6173,7 +6170,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="394"/>
+      <c r="A72" s="392"/>
       <c r="B72" s="26"/>
       <c r="C72" s="243"/>
       <c r="D72" s="243"/>
@@ -6184,7 +6181,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="394"/>
+      <c r="A73" s="392"/>
       <c r="B73" s="26"/>
       <c r="C73" s="243"/>
       <c r="D73" s="243"/>
@@ -6195,7 +6192,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="394"/>
+      <c r="A74" s="392"/>
       <c r="B74" s="26"/>
       <c r="C74" s="243"/>
       <c r="D74" s="243"/>
@@ -6206,7 +6203,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="394"/>
+      <c r="A75" s="392"/>
       <c r="B75" s="26"/>
       <c r="C75" s="243"/>
       <c r="D75" s="243"/>
@@ -6217,7 +6214,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="394"/>
+      <c r="A76" s="392"/>
       <c r="B76" s="26"/>
       <c r="C76" s="243"/>
       <c r="D76" s="243"/>
@@ -6228,7 +6225,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="394"/>
+      <c r="A77" s="392"/>
       <c r="B77" s="26"/>
       <c r="C77" s="243"/>
       <c r="D77" s="243"/>
@@ -6239,7 +6236,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="394"/>
+      <c r="A78" s="392"/>
       <c r="B78" s="26"/>
       <c r="C78" s="243"/>
       <c r="D78" s="243"/>
@@ -6250,7 +6247,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="394"/>
+      <c r="A79" s="392"/>
       <c r="B79" s="26"/>
       <c r="C79" s="243"/>
       <c r="D79" s="243"/>
@@ -6262,7 +6259,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="394"/>
+      <c r="A80" s="392"/>
       <c r="B80" s="26"/>
       <c r="C80" s="243"/>
       <c r="D80" s="243"/>
@@ -6274,7 +6271,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="394"/>
+      <c r="A81" s="392"/>
       <c r="B81" s="26"/>
       <c r="C81" s="243"/>
       <c r="D81" s="243"/>
@@ -6286,7 +6283,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="394"/>
+      <c r="A82" s="392"/>
       <c r="B82" s="26"/>
       <c r="C82" s="243"/>
       <c r="D82" s="243"/>
@@ -6298,7 +6295,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="394"/>
+      <c r="A83" s="392"/>
       <c r="B83" s="31"/>
       <c r="C83" s="244">
         <f>SUM(C5:C72)</f>
@@ -6354,67 +6351,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="395" t="s">
+      <c r="A1" s="397" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="395"/>
-      <c r="C1" s="395"/>
-      <c r="D1" s="395"/>
-      <c r="E1" s="395"/>
-      <c r="F1" s="395"/>
-      <c r="G1" s="395"/>
-      <c r="H1" s="395"/>
-      <c r="I1" s="395"/>
-      <c r="J1" s="395"/>
-      <c r="K1" s="395"/>
-      <c r="L1" s="395"/>
-      <c r="M1" s="395"/>
-      <c r="N1" s="395"/>
-      <c r="O1" s="395"/>
-      <c r="P1" s="395"/>
-      <c r="Q1" s="395"/>
+      <c r="B1" s="397"/>
+      <c r="C1" s="397"/>
+      <c r="D1" s="397"/>
+      <c r="E1" s="397"/>
+      <c r="F1" s="397"/>
+      <c r="G1" s="397"/>
+      <c r="H1" s="397"/>
+      <c r="I1" s="397"/>
+      <c r="J1" s="397"/>
+      <c r="K1" s="397"/>
+      <c r="L1" s="397"/>
+      <c r="M1" s="397"/>
+      <c r="N1" s="397"/>
+      <c r="O1" s="397"/>
+      <c r="P1" s="397"/>
+      <c r="Q1" s="397"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="396" t="s">
+      <c r="A2" s="398" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="396"/>
-      <c r="C2" s="396"/>
-      <c r="D2" s="396"/>
-      <c r="E2" s="396"/>
-      <c r="F2" s="396"/>
-      <c r="G2" s="396"/>
-      <c r="H2" s="396"/>
-      <c r="I2" s="396"/>
-      <c r="J2" s="396"/>
-      <c r="K2" s="396"/>
-      <c r="L2" s="396"/>
-      <c r="M2" s="396"/>
-      <c r="N2" s="396"/>
-      <c r="O2" s="396"/>
-      <c r="P2" s="396"/>
-      <c r="Q2" s="396"/>
+      <c r="B2" s="398"/>
+      <c r="C2" s="398"/>
+      <c r="D2" s="398"/>
+      <c r="E2" s="398"/>
+      <c r="F2" s="398"/>
+      <c r="G2" s="398"/>
+      <c r="H2" s="398"/>
+      <c r="I2" s="398"/>
+      <c r="J2" s="398"/>
+      <c r="K2" s="398"/>
+      <c r="L2" s="398"/>
+      <c r="M2" s="398"/>
+      <c r="N2" s="398"/>
+      <c r="O2" s="398"/>
+      <c r="P2" s="398"/>
+      <c r="Q2" s="398"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="397" t="s">
+      <c r="A3" s="399" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="398"/>
-      <c r="C3" s="398"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
-      <c r="G3" s="398"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="398"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
-      <c r="N3" s="398"/>
-      <c r="O3" s="398"/>
-      <c r="P3" s="398"/>
-      <c r="Q3" s="399"/>
+      <c r="B3" s="400"/>
+      <c r="C3" s="400"/>
+      <c r="D3" s="400"/>
+      <c r="E3" s="400"/>
+      <c r="F3" s="400"/>
+      <c r="G3" s="400"/>
+      <c r="H3" s="400"/>
+      <c r="I3" s="400"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="400"/>
+      <c r="M3" s="400"/>
+      <c r="N3" s="400"/>
+      <c r="O3" s="400"/>
+      <c r="P3" s="400"/>
+      <c r="Q3" s="401"/>
       <c r="S3" s="47"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6423,49 +6420,49 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="400" t="s">
+      <c r="A4" s="402" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="402" t="s">
+      <c r="B4" s="404" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="404" t="s">
+      <c r="C4" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="404" t="s">
+      <c r="D4" s="393" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="404" t="s">
+      <c r="E4" s="393" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="404" t="s">
+      <c r="F4" s="393" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="404" t="s">
+      <c r="G4" s="393" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="404" t="s">
+      <c r="H4" s="393" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="404" t="s">
+      <c r="I4" s="393" t="s">
         <v>252</v>
       </c>
-      <c r="J4" s="404" t="s">
+      <c r="J4" s="393" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="404" t="s">
+      <c r="K4" s="393" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="404" t="s">
+      <c r="L4" s="393" t="s">
         <v>220</v>
       </c>
-      <c r="M4" s="404" t="s">
+      <c r="M4" s="393" t="s">
         <v>219</v>
       </c>
-      <c r="N4" s="404" t="s">
+      <c r="N4" s="393" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="408" t="s">
+      <c r="O4" s="395" t="s">
         <v>37</v>
       </c>
       <c r="P4" s="406" t="s">
@@ -6481,21 +6478,21 @@
       <c r="W4" s="66"/>
     </row>
     <row r="5" spans="1:24" s="64" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="401"/>
-      <c r="B5" s="403"/>
-      <c r="C5" s="405"/>
-      <c r="D5" s="405"/>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="405"/>
-      <c r="J5" s="405"/>
-      <c r="K5" s="405"/>
-      <c r="L5" s="405"/>
-      <c r="M5" s="405"/>
-      <c r="N5" s="405"/>
-      <c r="O5" s="409"/>
+      <c r="A5" s="403"/>
+      <c r="B5" s="405"/>
+      <c r="C5" s="394"/>
+      <c r="D5" s="394"/>
+      <c r="E5" s="394"/>
+      <c r="F5" s="394"/>
+      <c r="G5" s="394"/>
+      <c r="H5" s="394"/>
+      <c r="I5" s="394"/>
+      <c r="J5" s="394"/>
+      <c r="K5" s="394"/>
+      <c r="L5" s="394"/>
+      <c r="M5" s="394"/>
+      <c r="N5" s="394"/>
+      <c r="O5" s="396"/>
       <c r="P5" s="407"/>
       <c r="Q5" s="122" t="s">
         <v>38</v>
@@ -9458,6 +9455,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9474,9 +9474,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9516,15 +9513,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="415" t="s">
+      <c r="A1" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="415"/>
-      <c r="C1" s="415"/>
-      <c r="D1" s="415"/>
-      <c r="E1" s="415"/>
-      <c r="F1" s="415"/>
-      <c r="G1" s="415"/>
+      <c r="B1" s="413"/>
+      <c r="C1" s="413"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="413"/>
+      <c r="F1" s="413"/>
+      <c r="G1" s="413"/>
       <c r="H1" s="57"/>
       <c r="I1" s="138"/>
       <c r="J1" s="138"/>
@@ -9617,15 +9614,15 @@
       <c r="CS1" s="133"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="416" t="s">
+      <c r="A2" s="414" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="416"/>
-      <c r="C2" s="416"/>
-      <c r="D2" s="416"/>
-      <c r="E2" s="416"/>
-      <c r="F2" s="416"/>
-      <c r="G2" s="416"/>
+      <c r="B2" s="414"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="414"/>
+      <c r="G2" s="414"/>
       <c r="H2" s="57"/>
       <c r="I2" s="138"/>
       <c r="J2" s="138"/>
@@ -9718,15 +9715,15 @@
       <c r="CS2" s="133"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="417" t="s">
+      <c r="A3" s="415" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="417"/>
-      <c r="C3" s="417"/>
-      <c r="D3" s="417"/>
-      <c r="E3" s="417"/>
-      <c r="F3" s="417"/>
-      <c r="G3" s="417"/>
+      <c r="B3" s="415"/>
+      <c r="C3" s="415"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="415"/>
+      <c r="F3" s="415"/>
+      <c r="G3" s="415"/>
       <c r="H3" s="57"/>
       <c r="I3" s="138"/>
       <c r="J3" s="138"/>
@@ -13058,12 +13055,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="128"/>
-      <c r="B35" s="412" t="s">
+      <c r="B35" s="410" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="412"/>
-      <c r="D35" s="412"/>
-      <c r="E35" s="412"/>
+      <c r="C35" s="410"/>
+      <c r="D35" s="410"/>
+      <c r="E35" s="410"/>
       <c r="F35" s="129"/>
       <c r="G35" s="134"/>
       <c r="H35" s="134"/>
@@ -13282,7 +13279,7 @@
       <c r="D37" s="202">
         <v>30000</v>
       </c>
-      <c r="E37" s="341" t="s">
+      <c r="E37" s="339" t="s">
         <v>213</v>
       </c>
       <c r="F37" s="129"/>
@@ -13491,10 +13488,10 @@
       <c r="A39" s="179" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="331" t="s">
+      <c r="B39" s="329" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="332" t="s">
+      <c r="C39" s="330" t="s">
         <v>157</v>
       </c>
       <c r="D39" s="203">
@@ -13698,7 +13695,7 @@
     <row r="41" spans="1:97">
       <c r="A41" s="179"/>
       <c r="B41" s="54"/>
-      <c r="C41" s="340"/>
+      <c r="C41" s="338"/>
       <c r="D41" s="203"/>
       <c r="E41" s="171"/>
       <c r="F41" s="132"/>
@@ -13904,10 +13901,10 @@
       <c r="D43" s="203"/>
       <c r="E43" s="171"/>
       <c r="F43" s="129"/>
-      <c r="G43" s="413"/>
-      <c r="H43" s="413"/>
-      <c r="I43" s="413"/>
-      <c r="J43" s="413"/>
+      <c r="G43" s="411"/>
+      <c r="H43" s="411"/>
+      <c r="I43" s="411"/>
+      <c r="J43" s="411"/>
       <c r="K43" s="57"/>
       <c r="L43" s="138"/>
       <c r="M43" s="57"/>
@@ -14217,17 +14214,17 @@
       <c r="CS45" s="133"/>
     </row>
     <row r="46" spans="1:97">
-      <c r="A46" s="355" t="s">
+      <c r="A46" s="353" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="356" t="s">
+      <c r="B46" s="354" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="357"/>
-      <c r="D46" s="358">
+      <c r="C46" s="355"/>
+      <c r="D46" s="356">
         <v>61790</v>
       </c>
-      <c r="E46" s="359" t="s">
+      <c r="E46" s="357" t="s">
         <v>246</v>
       </c>
       <c r="F46" s="126"/>
@@ -14335,17 +14332,17 @@
       <c r="CS46" s="133"/>
     </row>
     <row r="47" spans="1:97">
-      <c r="A47" s="355" t="s">
+      <c r="A47" s="353" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="360" t="s">
+      <c r="B47" s="358" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="361"/>
-      <c r="D47" s="362">
+      <c r="C47" s="359"/>
+      <c r="D47" s="360">
         <v>87440</v>
       </c>
-      <c r="E47" s="363" t="s">
+      <c r="E47" s="361" t="s">
         <v>269</v>
       </c>
       <c r="F47" s="127"/>
@@ -14453,17 +14450,17 @@
       <c r="CS47" s="133"/>
     </row>
     <row r="48" spans="1:97">
-      <c r="A48" s="355" t="s">
+      <c r="A48" s="353" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="364" t="s">
+      <c r="B48" s="362" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="361"/>
-      <c r="D48" s="365">
+      <c r="C48" s="359"/>
+      <c r="D48" s="363">
         <v>160070</v>
       </c>
-      <c r="E48" s="363" t="s">
+      <c r="E48" s="361" t="s">
         <v>246</v>
       </c>
       <c r="F48" s="127"/>
@@ -14571,17 +14568,17 @@
       <c r="CS48" s="133"/>
     </row>
     <row r="49" spans="1:97">
-      <c r="A49" s="355" t="s">
+      <c r="A49" s="353" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="366" t="s">
+      <c r="B49" s="364" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="361"/>
-      <c r="D49" s="365">
+      <c r="C49" s="359"/>
+      <c r="D49" s="363">
         <v>230000</v>
       </c>
-      <c r="E49" s="363" t="s">
+      <c r="E49" s="361" t="s">
         <v>256</v>
       </c>
       <c r="F49" s="127"/>
@@ -14689,17 +14686,17 @@
       <c r="CS49" s="133"/>
     </row>
     <row r="50" spans="1:97">
-      <c r="A50" s="355" t="s">
+      <c r="A50" s="353" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="367" t="s">
+      <c r="B50" s="365" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="361"/>
-      <c r="D50" s="365">
+      <c r="C50" s="359"/>
+      <c r="D50" s="363">
         <v>173770</v>
       </c>
-      <c r="E50" s="363" t="s">
+      <c r="E50" s="361" t="s">
         <v>246</v>
       </c>
       <c r="F50" s="127"/>
@@ -14807,17 +14804,17 @@
       <c r="CS50" s="133"/>
     </row>
     <row r="51" spans="1:97">
-      <c r="A51" s="355" t="s">
+      <c r="A51" s="353" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="367" t="s">
+      <c r="B51" s="365" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="361"/>
-      <c r="D51" s="365">
+      <c r="C51" s="359"/>
+      <c r="D51" s="363">
         <v>65800</v>
       </c>
-      <c r="E51" s="368" t="s">
+      <c r="E51" s="366" t="s">
         <v>269</v>
       </c>
       <c r="F51" s="127"/>
@@ -14925,17 +14922,17 @@
       <c r="CS51" s="133"/>
     </row>
     <row r="52" spans="1:97">
-      <c r="A52" s="355" t="s">
+      <c r="A52" s="353" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="366" t="s">
+      <c r="B52" s="364" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="361"/>
-      <c r="D52" s="365">
+      <c r="C52" s="359"/>
+      <c r="D52" s="363">
         <v>108000</v>
       </c>
-      <c r="E52" s="363" t="s">
+      <c r="E52" s="361" t="s">
         <v>269</v>
       </c>
       <c r="F52" s="127"/>
@@ -15043,11 +15040,11 @@
       <c r="CS52" s="133"/>
     </row>
     <row r="53" spans="1:97">
-      <c r="A53" s="355"/>
-      <c r="B53" s="366"/>
-      <c r="C53" s="361"/>
-      <c r="D53" s="365"/>
-      <c r="E53" s="368"/>
+      <c r="A53" s="353"/>
+      <c r="B53" s="364"/>
+      <c r="C53" s="359"/>
+      <c r="D53" s="363"/>
+      <c r="E53" s="366"/>
       <c r="F53" s="127"/>
       <c r="G53" s="133"/>
       <c r="H53" s="182" t="s">
@@ -15153,11 +15150,11 @@
       <c r="CS53" s="133"/>
     </row>
     <row r="54" spans="1:97">
-      <c r="A54" s="355"/>
-      <c r="B54" s="366"/>
-      <c r="C54" s="361"/>
-      <c r="D54" s="365"/>
-      <c r="E54" s="368"/>
+      <c r="A54" s="353"/>
+      <c r="B54" s="364"/>
+      <c r="C54" s="359"/>
+      <c r="D54" s="363"/>
+      <c r="E54" s="366"/>
       <c r="F54" s="127"/>
       <c r="G54" s="133"/>
       <c r="H54" s="184" t="s">
@@ -15263,11 +15260,11 @@
       <c r="CS54" s="133"/>
     </row>
     <row r="55" spans="1:97">
-      <c r="A55" s="355"/>
-      <c r="B55" s="364"/>
-      <c r="C55" s="361"/>
-      <c r="D55" s="365"/>
-      <c r="E55" s="363"/>
+      <c r="A55" s="353"/>
+      <c r="B55" s="362"/>
+      <c r="C55" s="359"/>
+      <c r="D55" s="363"/>
+      <c r="E55" s="361"/>
       <c r="F55" s="127"/>
       <c r="G55" s="133"/>
       <c r="H55" s="182" t="s">
@@ -15373,11 +15370,11 @@
       <c r="CS55" s="133"/>
     </row>
     <row r="56" spans="1:97">
-      <c r="A56" s="369"/>
-      <c r="B56" s="366"/>
-      <c r="C56" s="361"/>
-      <c r="D56" s="365"/>
-      <c r="E56" s="368"/>
+      <c r="A56" s="367"/>
+      <c r="B56" s="364"/>
+      <c r="C56" s="359"/>
+      <c r="D56" s="363"/>
+      <c r="E56" s="366"/>
       <c r="F56" s="127"/>
       <c r="G56" s="133"/>
       <c r="H56" s="182" t="s">
@@ -15483,17 +15480,17 @@
       <c r="CS56" s="133"/>
     </row>
     <row r="57" spans="1:97">
-      <c r="A57" s="377" t="s">
+      <c r="A57" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="378" t="s">
+      <c r="B57" s="376" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="379"/>
-      <c r="D57" s="380">
+      <c r="C57" s="377"/>
+      <c r="D57" s="378">
         <v>300780</v>
       </c>
-      <c r="E57" s="381" t="s">
+      <c r="E57" s="379" t="s">
         <v>267</v>
       </c>
       <c r="F57" s="127"/>
@@ -15601,17 +15598,17 @@
       <c r="CS57" s="133"/>
     </row>
     <row r="58" spans="1:97">
-      <c r="A58" s="377" t="s">
+      <c r="A58" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="382" t="s">
+      <c r="B58" s="380" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="379"/>
-      <c r="D58" s="380">
+      <c r="C58" s="377"/>
+      <c r="D58" s="378">
         <v>30000</v>
       </c>
-      <c r="E58" s="381" t="s">
+      <c r="E58" s="379" t="s">
         <v>246</v>
       </c>
       <c r="F58" s="127"/>
@@ -15719,17 +15716,17 @@
       <c r="CS58" s="133"/>
     </row>
     <row r="59" spans="1:97">
-      <c r="A59" s="377" t="s">
+      <c r="A59" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="378" t="s">
+      <c r="B59" s="376" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="379"/>
-      <c r="D59" s="380">
+      <c r="C59" s="377"/>
+      <c r="D59" s="378">
         <v>40000</v>
       </c>
-      <c r="E59" s="381" t="s">
+      <c r="E59" s="379" t="s">
         <v>246</v>
       </c>
       <c r="F59" s="127"/>
@@ -15837,17 +15834,17 @@
       <c r="CS59" s="133"/>
     </row>
     <row r="60" spans="1:97">
-      <c r="A60" s="377" t="s">
+      <c r="A60" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="378" t="s">
+      <c r="B60" s="376" t="s">
         <v>168</v>
       </c>
-      <c r="C60" s="379"/>
-      <c r="D60" s="380">
+      <c r="C60" s="377"/>
+      <c r="D60" s="378">
         <v>125000</v>
       </c>
-      <c r="E60" s="383" t="s">
+      <c r="E60" s="381" t="s">
         <v>269</v>
       </c>
       <c r="F60" s="127"/>
@@ -15955,17 +15952,17 @@
       <c r="CS60" s="133"/>
     </row>
     <row r="61" spans="1:97">
-      <c r="A61" s="377" t="s">
+      <c r="A61" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="378" t="s">
+      <c r="B61" s="376" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="379"/>
-      <c r="D61" s="380">
+      <c r="C61" s="377"/>
+      <c r="D61" s="378">
         <v>50000</v>
       </c>
-      <c r="E61" s="383" t="s">
+      <c r="E61" s="381" t="s">
         <v>256</v>
       </c>
       <c r="F61" s="129"/>
@@ -16073,17 +16070,17 @@
       <c r="CS61" s="133"/>
     </row>
     <row r="62" spans="1:97">
-      <c r="A62" s="377" t="s">
+      <c r="A62" s="375" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="384" t="s">
+      <c r="B62" s="382" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="379"/>
-      <c r="D62" s="380">
+      <c r="C62" s="377"/>
+      <c r="D62" s="378">
         <v>99530</v>
       </c>
-      <c r="E62" s="381" t="s">
+      <c r="E62" s="379" t="s">
         <v>235</v>
       </c>
       <c r="F62" s="126"/>
@@ -16191,17 +16188,17 @@
       <c r="CS62" s="133"/>
     </row>
     <row r="63" spans="1:97">
-      <c r="A63" s="377" t="s">
+      <c r="A63" s="375" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="385" t="s">
+      <c r="B63" s="383" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="379"/>
-      <c r="D63" s="380">
+      <c r="C63" s="377"/>
+      <c r="D63" s="378">
         <v>33000</v>
       </c>
-      <c r="E63" s="383" t="s">
+      <c r="E63" s="381" t="s">
         <v>235</v>
       </c>
       <c r="F63" s="127"/>
@@ -16309,17 +16306,17 @@
       <c r="CS63" s="133"/>
     </row>
     <row r="64" spans="1:97">
-      <c r="A64" s="377" t="s">
+      <c r="A64" s="375" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="378" t="s">
+      <c r="B64" s="376" t="s">
         <v>237</v>
       </c>
-      <c r="C64" s="379"/>
-      <c r="D64" s="380">
+      <c r="C64" s="377"/>
+      <c r="D64" s="378">
         <v>200000</v>
       </c>
-      <c r="E64" s="383" t="s">
+      <c r="E64" s="381" t="s">
         <v>250</v>
       </c>
       <c r="F64" s="127"/>
@@ -16427,11 +16424,11 @@
       <c r="CS64" s="133"/>
     </row>
     <row r="65" spans="1:97">
-      <c r="A65" s="377"/>
-      <c r="B65" s="378"/>
-      <c r="C65" s="379"/>
-      <c r="D65" s="380"/>
-      <c r="E65" s="383"/>
+      <c r="A65" s="375"/>
+      <c r="B65" s="376"/>
+      <c r="C65" s="377"/>
+      <c r="D65" s="378"/>
+      <c r="E65" s="381"/>
       <c r="F65" s="127"/>
       <c r="G65" s="133"/>
       <c r="H65" s="182" t="s">
@@ -16537,11 +16534,11 @@
       <c r="CS65" s="133"/>
     </row>
     <row r="66" spans="1:97">
-      <c r="A66" s="377"/>
-      <c r="B66" s="378"/>
-      <c r="C66" s="379"/>
-      <c r="D66" s="380"/>
-      <c r="E66" s="381"/>
+      <c r="A66" s="375"/>
+      <c r="B66" s="376"/>
+      <c r="C66" s="377"/>
+      <c r="D66" s="378"/>
+      <c r="E66" s="379"/>
       <c r="F66" s="127"/>
       <c r="G66" s="133"/>
       <c r="H66" s="182" t="s">
@@ -16647,11 +16644,11 @@
       <c r="CS66" s="133"/>
     </row>
     <row r="67" spans="1:97">
-      <c r="A67" s="377"/>
-      <c r="B67" s="378"/>
-      <c r="C67" s="379"/>
-      <c r="D67" s="380"/>
-      <c r="E67" s="383"/>
+      <c r="A67" s="375"/>
+      <c r="B67" s="376"/>
+      <c r="C67" s="377"/>
+      <c r="D67" s="378"/>
+      <c r="E67" s="381"/>
       <c r="F67" s="127"/>
       <c r="G67" s="133"/>
       <c r="H67" s="182" t="s">
@@ -16757,17 +16754,17 @@
       <c r="CS67" s="133"/>
     </row>
     <row r="68" spans="1:97">
-      <c r="A68" s="370" t="s">
+      <c r="A68" s="368" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="376" t="s">
+      <c r="B68" s="374" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="372"/>
-      <c r="D68" s="373">
+      <c r="C68" s="370"/>
+      <c r="D68" s="371">
         <v>97070</v>
       </c>
-      <c r="E68" s="374" t="s">
+      <c r="E68" s="372" t="s">
         <v>269</v>
       </c>
       <c r="F68" s="127"/>
@@ -16875,17 +16872,17 @@
       <c r="CS68" s="133"/>
     </row>
     <row r="69" spans="1:97">
-      <c r="A69" s="370" t="s">
+      <c r="A69" s="368" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="371" t="s">
+      <c r="B69" s="369" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="372"/>
-      <c r="D69" s="373">
+      <c r="C69" s="370"/>
+      <c r="D69" s="371">
         <v>78760</v>
       </c>
-      <c r="E69" s="374" t="s">
+      <c r="E69" s="372" t="s">
         <v>256</v>
       </c>
       <c r="F69" s="57"/>
@@ -16995,17 +16992,17 @@
       <c r="CS69" s="133"/>
     </row>
     <row r="70" spans="1:97">
-      <c r="A70" s="370" t="s">
+      <c r="A70" s="368" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="371" t="s">
+      <c r="B70" s="369" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="372"/>
-      <c r="D70" s="373">
+      <c r="C70" s="370"/>
+      <c r="D70" s="371">
         <v>51120</v>
       </c>
-      <c r="E70" s="386" t="s">
+      <c r="E70" s="384" t="s">
         <v>243</v>
       </c>
       <c r="F70" s="127"/>
@@ -17115,17 +17112,17 @@
       <c r="CS70" s="133"/>
     </row>
     <row r="71" spans="1:97">
-      <c r="A71" s="370" t="s">
+      <c r="A71" s="368" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="371" t="s">
+      <c r="B71" s="369" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="372"/>
-      <c r="D71" s="373">
+      <c r="C71" s="370"/>
+      <c r="D71" s="371">
         <v>289410</v>
       </c>
-      <c r="E71" s="386" t="s">
+      <c r="E71" s="384" t="s">
         <v>262</v>
       </c>
       <c r="F71" s="129"/>
@@ -17225,17 +17222,17 @@
       <c r="CS71" s="133"/>
     </row>
     <row r="72" spans="1:97">
-      <c r="A72" s="370" t="s">
+      <c r="A72" s="368" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="371" t="s">
+      <c r="B72" s="369" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="372"/>
-      <c r="D72" s="373">
+      <c r="C72" s="370"/>
+      <c r="D72" s="371">
         <v>150000</v>
       </c>
-      <c r="E72" s="375" t="s">
+      <c r="E72" s="373" t="s">
         <v>267</v>
       </c>
       <c r="F72" s="129"/>
@@ -17335,17 +17332,17 @@
       <c r="CS72" s="133"/>
     </row>
     <row r="73" spans="1:97">
-      <c r="A73" s="370" t="s">
+      <c r="A73" s="368" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="371" t="s">
+      <c r="B73" s="369" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="372"/>
-      <c r="D73" s="373">
+      <c r="C73" s="370"/>
+      <c r="D73" s="371">
         <v>305360</v>
       </c>
-      <c r="E73" s="386" t="s">
+      <c r="E73" s="384" t="s">
         <v>246</v>
       </c>
       <c r="F73" s="129"/>
@@ -17445,17 +17442,17 @@
       <c r="CS73" s="133"/>
     </row>
     <row r="74" spans="1:97">
-      <c r="A74" s="370" t="s">
+      <c r="A74" s="368" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="371" t="s">
+      <c r="B74" s="369" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="372"/>
-      <c r="D74" s="373">
+      <c r="C74" s="370"/>
+      <c r="D74" s="371">
         <v>242150</v>
       </c>
-      <c r="E74" s="375" t="s">
+      <c r="E74" s="373" t="s">
         <v>267</v>
       </c>
       <c r="F74" s="129"/>
@@ -17555,11 +17552,11 @@
       <c r="CS74" s="133"/>
     </row>
     <row r="75" spans="1:97">
-      <c r="A75" s="370"/>
-      <c r="B75" s="371"/>
-      <c r="C75" s="372"/>
-      <c r="D75" s="373"/>
-      <c r="E75" s="375"/>
+      <c r="A75" s="368"/>
+      <c r="B75" s="369"/>
+      <c r="C75" s="370"/>
+      <c r="D75" s="371"/>
+      <c r="E75" s="373"/>
       <c r="F75" s="127"/>
       <c r="G75" s="133"/>
       <c r="H75" s="182"/>
@@ -17657,11 +17654,11 @@
       <c r="CS75" s="133"/>
     </row>
     <row r="76" spans="1:97">
-      <c r="A76" s="370"/>
-      <c r="B76" s="371"/>
-      <c r="C76" s="372"/>
-      <c r="D76" s="373"/>
-      <c r="E76" s="375"/>
+      <c r="A76" s="368"/>
+      <c r="B76" s="369"/>
+      <c r="C76" s="370"/>
+      <c r="D76" s="371"/>
+      <c r="E76" s="373"/>
       <c r="F76" s="127"/>
       <c r="G76" s="133"/>
       <c r="H76" s="170"/>
@@ -17759,11 +17756,11 @@
       <c r="CS76" s="133"/>
     </row>
     <row r="77" spans="1:97">
-      <c r="A77" s="370"/>
-      <c r="B77" s="371"/>
-      <c r="C77" s="372"/>
-      <c r="D77" s="373"/>
-      <c r="E77" s="375"/>
+      <c r="A77" s="368"/>
+      <c r="B77" s="369"/>
+      <c r="C77" s="370"/>
+      <c r="D77" s="371"/>
+      <c r="E77" s="373"/>
       <c r="F77" s="127"/>
       <c r="G77" s="133"/>
       <c r="H77" s="182"/>
@@ -17861,11 +17858,11 @@
       <c r="CS77" s="133"/>
     </row>
     <row r="78" spans="1:97">
-      <c r="A78" s="370"/>
-      <c r="B78" s="371"/>
-      <c r="C78" s="372"/>
-      <c r="D78" s="373"/>
-      <c r="E78" s="375"/>
+      <c r="A78" s="368"/>
+      <c r="B78" s="369"/>
+      <c r="C78" s="370"/>
+      <c r="D78" s="371"/>
+      <c r="E78" s="373"/>
       <c r="F78" s="127"/>
       <c r="G78" s="133"/>
       <c r="H78" s="182"/>
@@ -17963,11 +17960,11 @@
       <c r="CS78" s="133"/>
     </row>
     <row r="79" spans="1:97">
-      <c r="A79" s="370"/>
-      <c r="B79" s="371"/>
-      <c r="C79" s="372"/>
-      <c r="D79" s="373"/>
-      <c r="E79" s="374"/>
+      <c r="A79" s="368"/>
+      <c r="B79" s="369"/>
+      <c r="C79" s="370"/>
+      <c r="D79" s="371"/>
+      <c r="E79" s="372"/>
       <c r="F79" s="127"/>
       <c r="G79" s="133"/>
       <c r="H79" s="182"/>
@@ -18065,11 +18062,11 @@
       <c r="CS79" s="133"/>
     </row>
     <row r="80" spans="1:97">
-      <c r="A80" s="370"/>
-      <c r="B80" s="371"/>
-      <c r="C80" s="372"/>
-      <c r="D80" s="373"/>
-      <c r="E80" s="375"/>
+      <c r="A80" s="368"/>
+      <c r="B80" s="369"/>
+      <c r="C80" s="370"/>
+      <c r="D80" s="371"/>
+      <c r="E80" s="373"/>
       <c r="F80" s="127" t="s">
         <v>13</v>
       </c>
@@ -22047,11 +22044,11 @@
       <c r="CS118" s="133"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="410" t="s">
+      <c r="A119" s="408" t="s">
         <v>26</v>
       </c>
-      <c r="B119" s="411"/>
-      <c r="C119" s="414"/>
+      <c r="B119" s="409"/>
+      <c r="C119" s="412"/>
       <c r="D119" s="207">
         <f>SUM(D37:D118)</f>
         <v>3021790</v>
@@ -22256,11 +22253,11 @@
       <c r="CS120" s="133"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="410" t="s">
+      <c r="A121" s="408" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="411"/>
-      <c r="C121" s="411"/>
+      <c r="B121" s="409"/>
+      <c r="C121" s="409"/>
       <c r="D121" s="207">
         <f>D119+M121</f>
         <v>3021790</v>
@@ -33495,7 +33492,7 @@
   <dimension ref="A1:R219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33506,8 +33503,8 @@
     <col min="4" max="4" width="42.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -33517,28 +33514,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="418" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="421"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="421"/>
-      <c r="E1" s="422"/>
+      <c r="B1" s="419"/>
+      <c r="C1" s="419"/>
+      <c r="D1" s="419"/>
+      <c r="E1" s="420"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="418"/>
-      <c r="J1" s="418"/>
-      <c r="K1" s="418"/>
+      <c r="I1" s="416"/>
+      <c r="J1" s="416"/>
+      <c r="K1" s="416"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="429" t="s">
+      <c r="A2" s="427" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="431"/>
+      <c r="B2" s="428"/>
+      <c r="C2" s="428"/>
+      <c r="D2" s="428"/>
+      <c r="E2" s="429"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33547,13 +33544,13 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="423" t="s">
+      <c r="A3" s="421" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="424"/>
-      <c r="C3" s="424"/>
-      <c r="D3" s="424"/>
-      <c r="E3" s="425"/>
+      <c r="B3" s="422"/>
+      <c r="C3" s="422"/>
+      <c r="D3" s="422"/>
+      <c r="E3" s="423"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33569,13 +33566,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="432" t="s">
+      <c r="A4" s="430" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="433"/>
-      <c r="C4" s="433"/>
-      <c r="D4" s="433"/>
-      <c r="E4" s="434"/>
+      <c r="B4" s="431"/>
+      <c r="C4" s="431"/>
+      <c r="D4" s="431"/>
+      <c r="E4" s="432"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -33620,13 +33617,13 @@
       <c r="I5" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J5" s="309">
+      <c r="J5" s="307">
         <v>30000</v>
       </c>
-      <c r="K5" s="309">
+      <c r="K5" s="307">
         <v>10000</v>
       </c>
-      <c r="L5" s="309">
+      <c r="L5" s="307">
         <f>J5+K5</f>
         <v>40000</v>
       </c>
@@ -33659,13 +33656,13 @@
       <c r="I6" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J6" s="309">
+      <c r="J6" s="307">
         <v>9000</v>
       </c>
-      <c r="K6" s="309">
+      <c r="K6" s="307">
         <v>5900</v>
       </c>
-      <c r="L6" s="309">
+      <c r="L6" s="307">
         <f t="shared" ref="L6:L8" si="0">J6+K6</f>
         <v>14900</v>
       </c>
@@ -33692,13 +33689,13 @@
       <c r="I7" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="J7" s="309">
+      <c r="J7" s="307">
         <v>24500</v>
       </c>
-      <c r="K7" s="309">
+      <c r="K7" s="307">
         <v>10000</v>
       </c>
-      <c r="L7" s="309">
+      <c r="L7" s="307">
         <f t="shared" si="0"/>
         <v>34500</v>
       </c>
@@ -33713,7 +33710,7 @@
       <c r="A8" s="266"/>
       <c r="B8" s="240"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="336"/>
+      <c r="D8" s="334"/>
       <c r="E8" s="265"/>
       <c r="F8" s="7"/>
       <c r="G8" s="231"/>
@@ -33721,13 +33718,13 @@
       <c r="I8" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="309">
+      <c r="J8" s="307">
         <v>29500</v>
       </c>
-      <c r="K8" s="309">
+      <c r="K8" s="307">
         <v>10000</v>
       </c>
-      <c r="L8" s="309">
+      <c r="L8" s="307">
         <f t="shared" si="0"/>
         <v>39500</v>
       </c>
@@ -33753,11 +33750,11 @@
       <c r="F9" s="7"/>
       <c r="G9" s="108"/>
       <c r="H9" s="108"/>
-      <c r="I9" s="309"/>
-      <c r="J9" s="309"/>
-      <c r="K9" s="309"/>
-      <c r="L9" s="309"/>
-      <c r="M9" s="309"/>
+      <c r="I9" s="307"/>
+      <c r="J9" s="307"/>
+      <c r="K9" s="307"/>
+      <c r="L9" s="307"/>
+      <c r="M9" s="307"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -33772,7 +33769,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="39"/>
-      <c r="D10" s="304" t="s">
+      <c r="D10" s="302" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="287">
@@ -33781,11 +33778,11 @@
       <c r="F10" s="7"/>
       <c r="G10" s="231"/>
       <c r="H10" s="231"/>
-      <c r="I10" s="309"/>
-      <c r="J10" s="309"/>
-      <c r="K10" s="309"/>
-      <c r="L10" s="309"/>
-      <c r="M10" s="309"/>
+      <c r="I10" s="307"/>
+      <c r="J10" s="307"/>
+      <c r="K10" s="307"/>
+      <c r="L10" s="307"/>
+      <c r="M10" s="307"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -33793,28 +33790,28 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="23.25">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="342" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="387">
+      <c r="B11" s="385">
         <f>B6-B9-B10</f>
         <v>23950</v>
       </c>
       <c r="C11" s="39"/>
-      <c r="D11" s="333" t="s">
+      <c r="D11" s="331" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="335">
+      <c r="E11" s="333">
         <v>109018</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="231"/>
       <c r="H11" s="231"/>
-      <c r="I11" s="309"/>
-      <c r="J11" s="309"/>
-      <c r="K11" s="309"/>
-      <c r="L11" s="309"/>
-      <c r="M11" s="309"/>
+      <c r="I11" s="307"/>
+      <c r="J11" s="307"/>
+      <c r="K11" s="307"/>
+      <c r="L11" s="307"/>
+      <c r="M11" s="307"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -33825,47 +33822,47 @@
       <c r="A12" s="266"/>
       <c r="B12" s="240"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="338"/>
-      <c r="E12" s="339"/>
+      <c r="D12" s="336"/>
+      <c r="E12" s="337"/>
       <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="231"/>
       <c r="H12" s="232"/>
-      <c r="I12" s="309"/>
-      <c r="J12" s="309"/>
-      <c r="K12" s="309"/>
-      <c r="L12" s="309"/>
-      <c r="M12" s="309"/>
+      <c r="I12" s="307"/>
+      <c r="J12" s="307"/>
+      <c r="K12" s="307"/>
+      <c r="L12" s="307"/>
+      <c r="M12" s="307"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" s="334" customFormat="1" ht="21.75">
-      <c r="A13" s="342"/>
-      <c r="B13" s="343"/>
+    <row r="13" spans="1:18" s="332" customFormat="1" ht="21.75">
+      <c r="A13" s="340"/>
+      <c r="B13" s="341"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="301" t="s">
+      <c r="D13" s="299" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="300">
+      <c r="E13" s="298">
         <v>74900</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="231"/>
       <c r="H13" s="232"/>
-      <c r="I13" s="419" t="s">
+      <c r="I13" s="417" t="s">
         <v>228</v>
       </c>
-      <c r="J13" s="419"/>
-      <c r="K13" s="419"/>
-      <c r="L13" s="293">
+      <c r="J13" s="417"/>
+      <c r="K13" s="417"/>
+      <c r="L13" s="291">
         <f>SUM(L5:L12)</f>
         <v>128900</v>
       </c>
-      <c r="M13" s="293"/>
+      <c r="M13" s="291"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -33876,20 +33873,20 @@
       <c r="A14" s="266"/>
       <c r="B14" s="240"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="301" t="s">
+      <c r="D14" s="299" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="300">
+      <c r="E14" s="298">
         <v>213170</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="302"/>
+      <c r="G14" s="300"/>
       <c r="H14" s="233"/>
-      <c r="I14" s="435" t="s">
+      <c r="I14" s="433" t="s">
         <v>253</v>
       </c>
-      <c r="J14" s="435"/>
-      <c r="K14" s="435"/>
+      <c r="J14" s="433"/>
+      <c r="K14" s="433"/>
       <c r="L14" s="31">
         <v>54000</v>
       </c>
@@ -33908,25 +33905,25 @@
         <v>3000000</v>
       </c>
       <c r="C15" s="39"/>
-      <c r="D15" s="301" t="s">
+      <c r="D15" s="299" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="300">
+      <c r="E15" s="298">
         <v>10000</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="303"/>
+      <c r="G15" s="301"/>
       <c r="H15" s="233"/>
-      <c r="I15" s="419" t="s">
+      <c r="I15" s="417" t="s">
         <v>254</v>
       </c>
-      <c r="J15" s="419"/>
-      <c r="K15" s="419"/>
-      <c r="L15" s="353">
+      <c r="J15" s="417"/>
+      <c r="K15" s="417"/>
+      <c r="L15" s="351">
         <f>L13-L14</f>
         <v>74900</v>
       </c>
-      <c r="M15" s="353"/>
+      <c r="M15" s="351"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -33941,15 +33938,15 @@
         <v>100000</v>
       </c>
       <c r="C16" s="39"/>
-      <c r="D16" s="301" t="s">
+      <c r="D16" s="299" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="300">
+      <c r="E16" s="298">
         <v>9340</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="459"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -33973,11 +33970,11 @@
         <v>16123950</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="288">
+      <c r="G17" s="109">
         <f>B17-E17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="289"/>
+      <c r="H17" s="459"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -33994,7 +33991,7 @@
       <c r="E18" s="269"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="459"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -34002,13 +33999,13 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="426" t="s">
+      <c r="A19" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="427"/>
-      <c r="C19" s="427"/>
-      <c r="D19" s="427"/>
-      <c r="E19" s="428"/>
+      <c r="B19" s="425"/>
+      <c r="C19" s="425"/>
+      <c r="D19" s="425"/>
+      <c r="E19" s="426"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -34026,10 +34023,10 @@
         <v>61790</v>
       </c>
       <c r="C20" s="277"/>
-      <c r="D20" s="345" t="s">
+      <c r="D20" s="343" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="346">
+      <c r="E20" s="344">
         <v>97070</v>
       </c>
       <c r="F20" s="5"/>
@@ -34151,10 +34148,10 @@
         <v>87440</v>
       </c>
       <c r="C26" s="118"/>
-      <c r="D26" s="347" t="s">
+      <c r="D26" s="345" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="348">
+      <c r="E26" s="346">
         <v>242150</v>
       </c>
       <c r="I26" s="7"/>
@@ -34249,10 +34246,10 @@
         <v>108000</v>
       </c>
       <c r="C30" s="281"/>
-      <c r="D30" s="349" t="s">
+      <c r="D30" s="347" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="350">
+      <c r="E30" s="348">
         <v>30000</v>
       </c>
       <c r="I30" s="7"/>
@@ -34267,17 +34264,17 @@
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="22.5" thickBot="1">
-      <c r="A31" s="328" t="s">
+      <c r="A31" s="326" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="329">
+      <c r="B31" s="327">
         <v>65800</v>
       </c>
-      <c r="C31" s="330"/>
-      <c r="D31" s="351" t="s">
+      <c r="C31" s="328"/>
+      <c r="D31" s="349" t="s">
         <v>227</v>
       </c>
-      <c r="E31" s="352">
+      <c r="E31" s="350">
         <v>6000</v>
       </c>
       <c r="I31" s="7"/>
@@ -37084,7 +37081,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="327" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="325" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -37093,73 +37090,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A1" s="441"/>
-      <c r="B1" s="441"/>
-      <c r="C1" s="441"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
+      <c r="A1" s="449"/>
+      <c r="B1" s="449"/>
+      <c r="C1" s="449"/>
+      <c r="D1" s="449"/>
+      <c r="E1" s="449"/>
+      <c r="F1" s="449"/>
+      <c r="G1" s="449"/>
+      <c r="H1" s="449"/>
+      <c r="I1" s="449"/>
     </row>
     <row r="2" spans="1:9" ht="24" thickBot="1">
-      <c r="A2" s="454" t="s">
+      <c r="A2" s="434" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="455"/>
-      <c r="C2" s="299">
+      <c r="B2" s="458"/>
+      <c r="C2" s="297">
         <f>C83</f>
         <v>50500</v>
       </c>
-      <c r="D2" s="323"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="310"/>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
-      <c r="I2" s="310"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
     </row>
     <row r="3" spans="1:9" ht="24" thickBot="1">
-      <c r="A3" s="454" t="s">
+      <c r="A3" s="434" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="460"/>
-      <c r="C3" s="299">
+      <c r="B3" s="435"/>
+      <c r="C3" s="297">
         <v>53000</v>
       </c>
-      <c r="D3" s="324"/>
-      <c r="E3" s="310"/>
-      <c r="F3" s="310"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="310"/>
-      <c r="I3" s="310"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="308"/>
+      <c r="I3" s="308"/>
     </row>
     <row r="4" spans="1:9" ht="24" thickBot="1">
-      <c r="A4" s="454" t="s">
+      <c r="A4" s="434" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="314">
+      <c r="B4" s="435"/>
+      <c r="C4" s="312">
         <f>C2-C3</f>
         <v>-2500</v>
       </c>
-      <c r="D4" s="324"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="308"/>
+      <c r="G4" s="308"/>
+      <c r="H4" s="308"/>
+      <c r="I4" s="308"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A5" s="441"/>
-      <c r="B5" s="441"/>
-      <c r="C5" s="441"/>
-      <c r="D5" s="441"/>
-      <c r="E5" s="441"/>
-      <c r="F5" s="441"/>
-      <c r="G5" s="441"/>
-      <c r="H5" s="441"/>
-      <c r="I5" s="441"/>
+      <c r="A5" s="449"/>
+      <c r="B5" s="449"/>
+      <c r="C5" s="449"/>
+      <c r="D5" s="449"/>
+      <c r="E5" s="449"/>
+      <c r="F5" s="449"/>
+      <c r="G5" s="449"/>
+      <c r="H5" s="449"/>
+      <c r="I5" s="449"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="257" t="s">
@@ -37171,19 +37168,19 @@
       <c r="C6" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="325" t="s">
+      <c r="D6" s="323" t="s">
         <v>162</v>
       </c>
       <c r="E6" s="257" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="305" t="s">
+      <c r="G6" s="303" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="296" t="s">
+      <c r="H6" s="294" t="s">
         <v>210</v>
       </c>
-      <c r="I6" s="306" t="s">
+      <c r="I6" s="304" t="s">
         <v>38</v>
       </c>
     </row>
@@ -37199,13 +37196,13 @@
       </c>
       <c r="D7" s="286"/>
       <c r="E7" s="284"/>
-      <c r="G7" s="444">
+      <c r="G7" s="436">
         <v>44684</v>
       </c>
-      <c r="H7" s="294" t="s">
+      <c r="H7" s="292" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="447">
+      <c r="I7" s="438">
         <v>15000</v>
       </c>
     </row>
@@ -37221,11 +37218,11 @@
       </c>
       <c r="D8" s="286"/>
       <c r="E8" s="284"/>
-      <c r="G8" s="444"/>
-      <c r="H8" s="294" t="s">
+      <c r="G8" s="436"/>
+      <c r="H8" s="292" t="s">
         <v>190</v>
       </c>
-      <c r="I8" s="447"/>
+      <c r="I8" s="438"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="278" t="s">
@@ -37239,11 +37236,11 @@
       </c>
       <c r="D9" s="286"/>
       <c r="E9" s="284"/>
-      <c r="G9" s="445"/>
-      <c r="H9" s="295" t="s">
+      <c r="G9" s="437"/>
+      <c r="H9" s="293" t="s">
         <v>191</v>
       </c>
-      <c r="I9" s="448"/>
+      <c r="I9" s="439"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1">
       <c r="A10" s="278" t="s">
@@ -37255,13 +37252,13 @@
       </c>
       <c r="D10" s="286"/>
       <c r="E10" s="284"/>
-      <c r="G10" s="444">
+      <c r="G10" s="436">
         <v>44684</v>
       </c>
-      <c r="H10" s="294" t="s">
+      <c r="H10" s="292" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="447">
+      <c r="I10" s="438">
         <v>5500</v>
       </c>
     </row>
@@ -37275,11 +37272,11 @@
       </c>
       <c r="D11" s="286"/>
       <c r="E11" s="284"/>
-      <c r="G11" s="444"/>
-      <c r="H11" s="294" t="s">
+      <c r="G11" s="436"/>
+      <c r="H11" s="292" t="s">
         <v>193</v>
       </c>
-      <c r="I11" s="447"/>
+      <c r="I11" s="438"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A12" s="278" t="s">
@@ -37291,11 +37288,11 @@
       </c>
       <c r="D12" s="286"/>
       <c r="E12" s="284"/>
-      <c r="G12" s="445"/>
-      <c r="H12" s="295" t="s">
+      <c r="G12" s="437"/>
+      <c r="H12" s="293" t="s">
         <v>191</v>
       </c>
-      <c r="I12" s="448"/>
+      <c r="I12" s="439"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="278"/>
@@ -37303,13 +37300,13 @@
       <c r="C13" s="278"/>
       <c r="D13" s="286"/>
       <c r="E13" s="284"/>
-      <c r="G13" s="444">
+      <c r="G13" s="436">
         <v>44684</v>
       </c>
-      <c r="H13" s="294" t="s">
+      <c r="H13" s="292" t="s">
         <v>194</v>
       </c>
-      <c r="I13" s="447">
+      <c r="I13" s="438">
         <v>5000</v>
       </c>
     </row>
@@ -37319,11 +37316,11 @@
       <c r="C14" s="256"/>
       <c r="D14" s="286"/>
       <c r="E14" s="284"/>
-      <c r="G14" s="444"/>
-      <c r="H14" s="294" t="s">
+      <c r="G14" s="436"/>
+      <c r="H14" s="292" t="s">
         <v>190</v>
       </c>
-      <c r="I14" s="447"/>
+      <c r="I14" s="438"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="278"/>
@@ -37331,11 +37328,11 @@
       <c r="C15" s="278"/>
       <c r="D15" s="286"/>
       <c r="E15" s="284"/>
-      <c r="G15" s="445"/>
-      <c r="H15" s="295" t="s">
+      <c r="G15" s="437"/>
+      <c r="H15" s="293" t="s">
         <v>199</v>
       </c>
-      <c r="I15" s="448"/>
+      <c r="I15" s="439"/>
     </row>
     <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="256" t="s">
@@ -37349,13 +37346,13 @@
       </c>
       <c r="D16" s="286"/>
       <c r="E16" s="284"/>
-      <c r="G16" s="444">
+      <c r="G16" s="436">
         <v>44684</v>
       </c>
-      <c r="H16" s="294" t="s">
+      <c r="H16" s="292" t="s">
         <v>195</v>
       </c>
-      <c r="I16" s="447">
+      <c r="I16" s="438">
         <v>3000</v>
       </c>
     </row>
@@ -37371,11 +37368,11 @@
       </c>
       <c r="D17" s="286"/>
       <c r="E17" s="284"/>
-      <c r="G17" s="444"/>
-      <c r="H17" s="294" t="s">
+      <c r="G17" s="436"/>
+      <c r="H17" s="292" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="447"/>
+      <c r="I17" s="438"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="256" t="s">
@@ -37389,11 +37386,11 @@
       </c>
       <c r="D18" s="286"/>
       <c r="E18" s="284"/>
-      <c r="G18" s="445"/>
-      <c r="H18" s="295" t="s">
+      <c r="G18" s="437"/>
+      <c r="H18" s="293" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="447"/>
+      <c r="I18" s="438"/>
     </row>
     <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="256" t="s">
@@ -37407,13 +37404,13 @@
       </c>
       <c r="D19" s="286"/>
       <c r="E19" s="284"/>
-      <c r="G19" s="444" t="s">
+      <c r="G19" s="436" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="294" t="s">
+      <c r="H19" s="292" t="s">
         <v>195</v>
       </c>
-      <c r="I19" s="446">
+      <c r="I19" s="452">
         <v>18000</v>
       </c>
     </row>
@@ -37429,11 +37426,11 @@
       </c>
       <c r="D20" s="286"/>
       <c r="E20" s="284"/>
-      <c r="G20" s="444"/>
-      <c r="H20" s="294" t="s">
+      <c r="G20" s="436"/>
+      <c r="H20" s="292" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="447"/>
+      <c r="I20" s="438"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="256" t="s">
@@ -37447,11 +37444,11 @@
       </c>
       <c r="D21" s="286"/>
       <c r="E21" s="284"/>
-      <c r="G21" s="445"/>
-      <c r="H21" s="295" t="s">
+      <c r="G21" s="437"/>
+      <c r="H21" s="293" t="s">
         <v>202</v>
       </c>
-      <c r="I21" s="448"/>
+      <c r="I21" s="439"/>
     </row>
     <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="256" t="s">
@@ -37465,13 +37462,13 @@
       </c>
       <c r="D22" s="286"/>
       <c r="E22" s="284"/>
-      <c r="G22" s="444" t="s">
+      <c r="G22" s="436" t="s">
         <v>203</v>
       </c>
-      <c r="H22" s="294" t="s">
+      <c r="H22" s="292" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="447">
+      <c r="I22" s="438">
         <v>7500</v>
       </c>
     </row>
@@ -37487,11 +37484,11 @@
       </c>
       <c r="D23" s="286"/>
       <c r="E23" s="284"/>
-      <c r="G23" s="444"/>
-      <c r="H23" s="294" t="s">
+      <c r="G23" s="436"/>
+      <c r="H23" s="292" t="s">
         <v>204</v>
       </c>
-      <c r="I23" s="447"/>
+      <c r="I23" s="438"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="A24" s="256" t="s">
@@ -37505,11 +37502,11 @@
       </c>
       <c r="D24" s="286"/>
       <c r="E24" s="284"/>
-      <c r="G24" s="445"/>
-      <c r="H24" s="295" t="s">
+      <c r="G24" s="437"/>
+      <c r="H24" s="293" t="s">
         <v>202</v>
       </c>
-      <c r="I24" s="448"/>
+      <c r="I24" s="439"/>
     </row>
     <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="256" t="s">
@@ -37523,13 +37520,13 @@
       </c>
       <c r="D25" s="286"/>
       <c r="E25" s="284"/>
-      <c r="G25" s="444" t="s">
+      <c r="G25" s="436" t="s">
         <v>203</v>
       </c>
-      <c r="H25" s="294" t="s">
+      <c r="H25" s="292" t="s">
         <v>205</v>
       </c>
-      <c r="I25" s="447">
+      <c r="I25" s="438">
         <v>1000</v>
       </c>
     </row>
@@ -37545,11 +37542,11 @@
       </c>
       <c r="D26" s="286"/>
       <c r="E26" s="284"/>
-      <c r="G26" s="444"/>
-      <c r="H26" s="294" t="s">
+      <c r="G26" s="436"/>
+      <c r="H26" s="292" t="s">
         <v>206</v>
       </c>
-      <c r="I26" s="447"/>
+      <c r="I26" s="438"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="256" t="s">
@@ -37563,11 +37560,11 @@
       </c>
       <c r="D27" s="286"/>
       <c r="E27" s="284"/>
-      <c r="G27" s="445"/>
-      <c r="H27" s="295" t="s">
+      <c r="G27" s="437"/>
+      <c r="H27" s="293" t="s">
         <v>207</v>
       </c>
-      <c r="I27" s="448"/>
+      <c r="I27" s="439"/>
     </row>
     <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="256" t="s">
@@ -37581,13 +37578,13 @@
       </c>
       <c r="D28" s="286"/>
       <c r="E28" s="284"/>
-      <c r="G28" s="449" t="s">
+      <c r="G28" s="453" t="s">
         <v>203</v>
       </c>
-      <c r="H28" s="297" t="s">
+      <c r="H28" s="295" t="s">
         <v>189</v>
       </c>
-      <c r="I28" s="451">
+      <c r="I28" s="455">
         <v>-2000</v>
       </c>
     </row>
@@ -37601,17 +37598,17 @@
       <c r="C29" s="256">
         <v>1500</v>
       </c>
-      <c r="D29" s="326" t="s">
+      <c r="D29" s="324" t="s">
         <v>167</v>
       </c>
       <c r="E29" s="284">
         <v>357484290824718</v>
       </c>
-      <c r="G29" s="449"/>
-      <c r="H29" s="297" t="s">
+      <c r="G29" s="453"/>
+      <c r="H29" s="295" t="s">
         <v>208</v>
       </c>
-      <c r="I29" s="452"/>
+      <c r="I29" s="456"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="256" t="s">
@@ -37627,11 +37624,11 @@
         <v>165</v>
       </c>
       <c r="E30" s="284"/>
-      <c r="G30" s="450"/>
-      <c r="H30" s="298" t="s">
+      <c r="G30" s="454"/>
+      <c r="H30" s="296" t="s">
         <v>209</v>
       </c>
-      <c r="I30" s="453"/>
+      <c r="I30" s="457"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1">
       <c r="A31" s="256" t="s">
@@ -37647,11 +37644,11 @@
         <v>167</v>
       </c>
       <c r="E31" s="284"/>
-      <c r="G31" s="442" t="s">
+      <c r="G31" s="450" t="s">
         <v>200</v>
       </c>
-      <c r="H31" s="443"/>
-      <c r="I31" s="311">
+      <c r="H31" s="451"/>
+      <c r="I31" s="309">
         <f>SUM(I7:I30)</f>
         <v>53000</v>
       </c>
@@ -37670,11 +37667,11 @@
         <v>175</v>
       </c>
       <c r="E32" s="284"/>
-      <c r="G32" s="458" t="s">
+      <c r="G32" s="447" t="s">
         <v>229</v>
       </c>
-      <c r="H32" s="459"/>
-      <c r="I32" s="312">
+      <c r="H32" s="448"/>
+      <c r="I32" s="310">
         <f>I45</f>
         <v>33000</v>
       </c>
@@ -37695,11 +37692,11 @@
       <c r="E33" s="284">
         <v>354551892947593</v>
       </c>
-      <c r="G33" s="456" t="s">
+      <c r="G33" s="445" t="s">
         <v>230</v>
       </c>
-      <c r="H33" s="457"/>
-      <c r="I33" s="313">
+      <c r="H33" s="446"/>
+      <c r="I33" s="311">
         <f>I31-I32</f>
         <v>20000</v>
       </c>
@@ -37746,11 +37743,11 @@
       <c r="E36" s="284">
         <v>357484290920474</v>
       </c>
-      <c r="G36" s="436" t="s">
+      <c r="G36" s="442" t="s">
         <v>259</v>
       </c>
-      <c r="H36" s="437"/>
-      <c r="I36" s="438"/>
+      <c r="H36" s="443"/>
+      <c r="I36" s="444"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="256" t="s">
@@ -37766,13 +37763,13 @@
         <v>178</v>
       </c>
       <c r="E37" s="284"/>
-      <c r="G37" s="317" t="s">
+      <c r="G37" s="315" t="s">
         <v>90</v>
       </c>
-      <c r="H37" s="318" t="s">
+      <c r="H37" s="316" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="319" t="s">
+      <c r="I37" s="317" t="s">
         <v>38</v>
       </c>
     </row>
@@ -37792,13 +37789,13 @@
       <c r="E38" s="284">
         <v>354551894521776</v>
       </c>
-      <c r="G38" s="315" t="s">
+      <c r="G38" s="313" t="s">
         <v>187</v>
       </c>
-      <c r="H38" s="292" t="s">
+      <c r="H38" s="290" t="s">
         <v>188</v>
       </c>
-      <c r="I38" s="320">
+      <c r="I38" s="318">
         <v>12000</v>
       </c>
     </row>
@@ -37818,13 +37815,13 @@
       <c r="E39" s="284">
         <v>354551894521958</v>
       </c>
-      <c r="G39" s="315" t="s">
+      <c r="G39" s="313" t="s">
         <v>256</v>
       </c>
       <c r="H39" s="278" t="s">
         <v>260</v>
       </c>
-      <c r="I39" s="320">
+      <c r="I39" s="318">
         <v>6500</v>
       </c>
     </row>
@@ -37842,13 +37839,13 @@
         <v>167</v>
       </c>
       <c r="E40" s="284"/>
-      <c r="G40" s="315" t="s">
+      <c r="G40" s="313" t="s">
         <v>262</v>
       </c>
       <c r="H40" s="278" t="s">
         <v>264</v>
       </c>
-      <c r="I40" s="320">
+      <c r="I40" s="318">
         <v>-2500</v>
       </c>
     </row>
@@ -37858,13 +37855,13 @@
       <c r="C41" s="256"/>
       <c r="D41" s="286"/>
       <c r="E41" s="284"/>
-      <c r="G41" s="315" t="s">
+      <c r="G41" s="313" t="s">
         <v>262</v>
       </c>
       <c r="H41" s="278" t="s">
         <v>188</v>
       </c>
-      <c r="I41" s="320">
+      <c r="I41" s="318">
         <v>6500</v>
       </c>
     </row>
@@ -37881,16 +37878,16 @@
       <c r="D42" s="285" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="290">
+      <c r="E42" s="288">
         <v>350414100342350</v>
       </c>
-      <c r="G42" s="316" t="s">
+      <c r="G42" s="314" t="s">
         <v>267</v>
       </c>
       <c r="H42" s="256" t="s">
         <v>268</v>
       </c>
-      <c r="I42" s="321">
+      <c r="I42" s="319">
         <v>8500</v>
       </c>
     </row>
@@ -37901,22 +37898,22 @@
       <c r="B43" s="286" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="307">
+      <c r="C43" s="305">
         <v>1000</v>
       </c>
       <c r="D43" s="286" t="s">
         <v>216</v>
       </c>
-      <c r="E43" s="354" t="s">
+      <c r="E43" s="352" t="s">
         <v>217</v>
       </c>
-      <c r="G43" s="316" t="s">
+      <c r="G43" s="314" t="s">
         <v>269</v>
       </c>
       <c r="H43" s="256" t="s">
         <v>268</v>
       </c>
-      <c r="I43" s="321">
+      <c r="I43" s="319">
         <v>2000</v>
       </c>
     </row>
@@ -37936,31 +37933,31 @@
       <c r="E44" s="284">
         <v>357484290765465</v>
       </c>
-      <c r="G44" s="316"/>
+      <c r="G44" s="314"/>
       <c r="H44" s="256"/>
-      <c r="I44" s="321"/>
+      <c r="I44" s="319"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1">
       <c r="A45" s="256" t="s">
         <v>235</v>
       </c>
-      <c r="B45" s="337" t="s">
+      <c r="B45" s="335" t="s">
         <v>236</v>
       </c>
       <c r="C45" s="256">
         <v>500</v>
       </c>
-      <c r="D45" s="326" t="s">
+      <c r="D45" s="324" t="s">
         <v>178</v>
       </c>
       <c r="E45" s="284">
         <v>354551892934849</v>
       </c>
-      <c r="G45" s="439" t="s">
+      <c r="G45" s="440" t="s">
         <v>93</v>
       </c>
-      <c r="H45" s="440"/>
-      <c r="I45" s="322">
+      <c r="H45" s="441"/>
+      <c r="I45" s="320">
         <f>SUM(I38:I44)</f>
         <v>33000</v>
       </c>
@@ -37985,11 +37982,11 @@
       <c r="C48" s="256"/>
       <c r="D48" s="286"/>
       <c r="E48" s="284"/>
-      <c r="G48" s="436" t="s">
+      <c r="G48" s="442" t="s">
         <v>265</v>
       </c>
-      <c r="H48" s="437"/>
-      <c r="I48" s="438"/>
+      <c r="H48" s="443"/>
+      <c r="I48" s="444"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="256"/>
@@ -37997,13 +37994,13 @@
       <c r="C49" s="256"/>
       <c r="D49" s="286"/>
       <c r="E49" s="284"/>
-      <c r="G49" s="317" t="s">
+      <c r="G49" s="315" t="s">
         <v>90</v>
       </c>
-      <c r="H49" s="318" t="s">
+      <c r="H49" s="316" t="s">
         <v>91</v>
       </c>
-      <c r="I49" s="319" t="s">
+      <c r="I49" s="317" t="s">
         <v>38</v>
       </c>
     </row>
@@ -38013,13 +38010,13 @@
       <c r="C50" s="256"/>
       <c r="D50" s="286"/>
       <c r="E50" s="284"/>
-      <c r="G50" s="315" t="s">
+      <c r="G50" s="313" t="s">
         <v>187</v>
       </c>
-      <c r="H50" s="292" t="s">
+      <c r="H50" s="290" t="s">
         <v>188</v>
       </c>
-      <c r="I50" s="320">
+      <c r="I50" s="318">
         <v>8000</v>
       </c>
     </row>
@@ -38029,13 +38026,13 @@
       <c r="C51" s="256"/>
       <c r="D51" s="286"/>
       <c r="E51" s="284"/>
-      <c r="G51" s="315" t="s">
+      <c r="G51" s="313" t="s">
         <v>262</v>
       </c>
       <c r="H51" s="278" t="s">
         <v>188</v>
       </c>
-      <c r="I51" s="320">
+      <c r="I51" s="318">
         <v>5000</v>
       </c>
     </row>
@@ -38045,13 +38042,13 @@
       <c r="C52" s="256"/>
       <c r="D52" s="286"/>
       <c r="E52" s="284"/>
-      <c r="G52" s="315" t="s">
+      <c r="G52" s="313" t="s">
         <v>267</v>
       </c>
       <c r="H52" s="278" t="s">
         <v>268</v>
       </c>
-      <c r="I52" s="320">
+      <c r="I52" s="318">
         <v>5000</v>
       </c>
     </row>
@@ -38061,9 +38058,9 @@
       <c r="C53" s="256"/>
       <c r="D53" s="286"/>
       <c r="E53" s="284"/>
-      <c r="G53" s="315"/>
+      <c r="G53" s="313"/>
       <c r="H53" s="278"/>
-      <c r="I53" s="320"/>
+      <c r="I53" s="318"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="256"/>
@@ -38071,9 +38068,9 @@
       <c r="C54" s="256"/>
       <c r="D54" s="286"/>
       <c r="E54" s="284"/>
-      <c r="G54" s="316"/>
+      <c r="G54" s="314"/>
       <c r="H54" s="256"/>
-      <c r="I54" s="321"/>
+      <c r="I54" s="319"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="256"/>
@@ -38081,9 +38078,9 @@
       <c r="C55" s="256"/>
       <c r="D55" s="286"/>
       <c r="E55" s="284"/>
-      <c r="G55" s="316"/>
+      <c r="G55" s="314"/>
       <c r="H55" s="256"/>
-      <c r="I55" s="321"/>
+      <c r="I55" s="319"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="256"/>
@@ -38091,9 +38088,9 @@
       <c r="C56" s="256"/>
       <c r="D56" s="286"/>
       <c r="E56" s="284"/>
-      <c r="G56" s="316"/>
+      <c r="G56" s="314"/>
       <c r="H56" s="256"/>
-      <c r="I56" s="321"/>
+      <c r="I56" s="319"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickBot="1">
       <c r="A57" s="256"/>
@@ -38101,11 +38098,11 @@
       <c r="C57" s="256"/>
       <c r="D57" s="286"/>
       <c r="E57" s="284"/>
-      <c r="G57" s="439" t="s">
+      <c r="G57" s="440" t="s">
         <v>93</v>
       </c>
-      <c r="H57" s="440"/>
-      <c r="I57" s="322">
+      <c r="H57" s="441"/>
+      <c r="I57" s="320">
         <f>SUM(I50:I56)</f>
         <v>18000</v>
       </c>
@@ -38300,18 +38297,6 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G32:H32"/>
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="A1:I1"/>
@@ -38328,6 +38313,18 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="I13:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38347,39 +38344,39 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="327" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="325" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A1" s="441"/>
-      <c r="B1" s="441"/>
-      <c r="C1" s="441"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
+      <c r="A1" s="449"/>
+      <c r="B1" s="449"/>
+      <c r="C1" s="449"/>
+      <c r="D1" s="449"/>
+      <c r="E1" s="449"/>
+      <c r="F1" s="449"/>
     </row>
     <row r="2" spans="1:6" ht="24" thickBot="1">
-      <c r="A2" s="454" t="s">
+      <c r="A2" s="434" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="455"/>
-      <c r="C2" s="299">
+      <c r="B2" s="458"/>
+      <c r="C2" s="297">
         <f>C81</f>
         <v>10000</v>
       </c>
-      <c r="D2" s="323"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="310"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="441"/>
-      <c r="B3" s="441"/>
-      <c r="C3" s="441"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="441"/>
-      <c r="F3" s="441"/>
+      <c r="A3" s="449"/>
+      <c r="B3" s="449"/>
+      <c r="C3" s="449"/>
+      <c r="D3" s="449"/>
+      <c r="E3" s="449"/>
+      <c r="F3" s="449"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="257" t="s">
@@ -38391,7 +38388,7 @@
       <c r="C4" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="325" t="s">
+      <c r="D4" s="323" t="s">
         <v>162</v>
       </c>
       <c r="E4" s="257" t="s">
@@ -38569,19 +38566,19 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="388" t="s">
+      <c r="A15" s="386" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="389" t="s">
+      <c r="B15" s="387" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="388">
+      <c r="C15" s="386">
         <v>500</v>
       </c>
-      <c r="D15" s="389" t="s">
+      <c r="D15" s="387" t="s">
         <v>248</v>
       </c>
-      <c r="E15" s="390">
+      <c r="E15" s="388">
         <v>354551894426976</v>
       </c>
     </row>
@@ -38666,7 +38663,7 @@
       <c r="A27" s="256"/>
       <c r="B27" s="286"/>
       <c r="C27" s="256"/>
-      <c r="D27" s="326"/>
+      <c r="D27" s="324"/>
       <c r="E27" s="284"/>
     </row>
     <row r="28" spans="1:5">
@@ -38758,14 +38755,14 @@
       <c r="B40" s="278"/>
       <c r="C40" s="278"/>
       <c r="D40" s="285"/>
-      <c r="E40" s="290"/>
+      <c r="E40" s="288"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="286"/>
       <c r="B41" s="286"/>
-      <c r="C41" s="307"/>
+      <c r="C41" s="305"/>
       <c r="D41" s="286"/>
-      <c r="E41" s="308"/>
+      <c r="E41" s="306"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="256"/>
@@ -38776,9 +38773,9 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="256"/>
-      <c r="B43" s="337"/>
+      <c r="B43" s="335"/>
       <c r="C43" s="256"/>
-      <c r="D43" s="326"/>
+      <c r="D43" s="324"/>
       <c r="E43" s="284"/>
     </row>
     <row r="44" spans="1:5">
